--- a/results/daiwei_results.xlsx
+++ b/results/daiwei_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>p53</t>
   </si>
@@ -94,8 +94,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -115,19 +117,21 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -389,6 +393,51 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1077.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sec / iter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$6:$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>p53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>farm ads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.06395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,7 +1074,7 @@
   <dimension ref="A5:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1045,6 +1094,9 @@
       <c r="G5" t="s">
         <v>3</v>
       </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
       <c r="L5" t="s">
         <v>4</v>
       </c>
@@ -1068,6 +1120,9 @@
       <c r="G6">
         <v>871</v>
       </c>
+      <c r="H6">
+        <v>5.0639500000000002</v>
+      </c>
       <c r="K6" t="s">
         <v>0</v>
       </c>
@@ -1096,6 +1151,9 @@
       </c>
       <c r="G7" s="1">
         <v>1077.79</v>
+      </c>
+      <c r="H7">
+        <v>5.16</v>
       </c>
       <c r="K7" t="s">
         <v>6</v>
